--- a/colaboradores.xlsx
+++ b/colaboradores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>imagem</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>nome</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>Telefone</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>telefone</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>supervisor_id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cargo_id</t>
+          <t>Supervisor</t>
         </is>
       </c>
     </row>
@@ -474,134 +469,27 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Helio Castro</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hélio Castro</t>
+          <t>helio.castro@veigacastro.com.br</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>helio.castro@veigacastro.com.br</t>
+          <t>63 34116800</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6334116800</t>
+          <t>Sócio/Operador</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Carolina Castro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>carolina.castro@veigacastro.com.br</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9484039764</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Leane Gama</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>leane.gama@veigacastro.com.br</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6334116800</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tatiane Alencar</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>supervisao.lojas@veigacastro.com.br</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6334116800</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Antonio Carlos</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>supervisao.lojasmab@veigacastro.com.br</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6334116800</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
